--- a/userQuery.xlsx
+++ b/userQuery.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="307">
   <si>
     <t>appVersion</t>
   </si>
@@ -166,100 +166,112 @@
     <t>WEB_APPLICATION</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Gomez Agent</t>
+  </si>
+  <si>
+    <t>Googlebot</t>
+  </si>
+  <si>
     <t>Keynote Agent</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Gomez Agent</t>
-  </si>
-  <si>
-    <t>Safari</t>
-  </si>
-  <si>
-    <t>Yahoo!</t>
-  </si>
-  <si>
-    <t>IE</t>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Chrome 50</t>
+  </si>
+  <si>
+    <t>Chrome 51</t>
+  </si>
+  <si>
+    <t>IE 11</t>
+  </si>
+  <si>
+    <t>Chrome 55</t>
+  </si>
+  <si>
+    <t>Firefox 36</t>
   </si>
   <si>
     <t>Chrome 56</t>
   </si>
   <si>
+    <t>Chrome 53</t>
+  </si>
+  <si>
     <t>Firefox 51</t>
   </si>
   <si>
+    <t>Safari 9</t>
+  </si>
+  <si>
     <t>Chrome 40</t>
   </si>
   <si>
-    <t>Safari 9</t>
-  </si>
-  <si>
-    <t>Chrome 48</t>
-  </si>
-  <si>
-    <t>Firefox 48</t>
-  </si>
-  <si>
-    <t>Chrome 50</t>
-  </si>
-  <si>
-    <t>Chrome 55</t>
-  </si>
-  <si>
-    <t>Chrome 46</t>
-  </si>
-  <si>
-    <t>IE 11</t>
-  </si>
-  <si>
-    <t>Safari 10</t>
+    <t>Firefox 46</t>
+  </si>
+  <si>
+    <t>Edge 14</t>
+  </si>
+  <si>
+    <t>Firefox 50</t>
+  </si>
+  <si>
+    <t>Desktop Browser</t>
   </si>
   <si>
     <t>Synthetic Agent</t>
   </si>
   <si>
-    <t>Desktop Browser</t>
-  </si>
-  <si>
     <t>Robot</t>
   </si>
   <si>
+    <t>Winchester</t>
+  </si>
+  <si>
+    <t>Coachella</t>
+  </si>
+  <si>
+    <t>Kall</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Invermere</t>
+  </si>
+  <si>
+    <t>Kostrzyn</t>
+  </si>
+  <si>
     <t>Delray Beach</t>
   </si>
   <si>
-    <t>Chuncheon</t>
-  </si>
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Mount Pleasant</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Kyoto</t>
-  </si>
-  <si>
-    <t>Erechim</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>Doha</t>
-  </si>
-  <si>
-    <t>Daro</t>
-  </si>
-  <si>
-    <t>Zhangjiakou</t>
+    <t>Wolfenbüttel</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Skarszewy</t>
+  </si>
+  <si>
+    <t>Cairo</t>
   </si>
   <si>
     <t>UNKNOWN</t>
@@ -268,268 +280,373 @@
     <t>North America</t>
   </si>
   <si>
+    <t>Europe</t>
+  </si>
+  <si>
     <t>Asia</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>South America</t>
   </si>
   <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Japan</t>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Poland</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>FHD</t>
+  </si>
+  <si>
+    <t>SXGA</t>
+  </si>
+  <si>
     <t>WXGA3</t>
   </si>
   <si>
-    <t>WXGAPlus</t>
-  </si>
-  <si>
-    <t>FHD</t>
-  </si>
-  <si>
     <t>FWXGA</t>
   </si>
   <si>
+    <t>WUXGA</t>
+  </si>
+  <si>
+    <t>nHD</t>
+  </si>
+  <si>
+    <t>SVGA</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
     <t>XGA</t>
   </si>
   <si>
-    <t>WSXGAPlus</t>
-  </si>
-  <si>
-    <t>QXGA</t>
+    <t>WSXGA</t>
+  </si>
+  <si>
+    <t>XGAPLUS</t>
   </si>
   <si>
     <t>TIMEOUT</t>
   </si>
   <si>
-    <t>1582199676205VBG09UTHZVXKPGUN972ZUQ2FAMO1RMYR</t>
-  </si>
-  <si>
-    <t>1582137206354R4CLOFQZA0PIO011NVS281Z5WGKCZH86</t>
-  </si>
-  <si>
-    <t>1582137206383UN8JRS0LSLRT93NMHISC789SS4VKLHEQ</t>
-  </si>
-  <si>
-    <t>1582199496205R5QXLD88UAAT4N8SXX0CA64S4OCWR6BX</t>
-  </si>
-  <si>
-    <t>1487753868791R6P0K9F0FEUTG6EQ54U3WNVL6A2KNE9N</t>
+    <t>15820376465058RSVG2C5BHI7SE6CIVKYIEPI14KEQJXY</t>
+  </si>
+  <si>
+    <t>1582045138235ESJPCT5MYK6PK65XEJ31GQG4OB9KVDQP</t>
+  </si>
+  <si>
+    <t>1582037646572QJGSTTOEJ084DP1EVJEEFYK7K01GYDSO</t>
+  </si>
+  <si>
+    <t>15820376465655ATT7V0LVVP04XFYSWAT9EGJVEM7D21P</t>
+  </si>
+  <si>
+    <t>15820376465422HXPS7I54ZUDQIL9G5VWM001X8O1J9NC</t>
+  </si>
+  <si>
+    <t>148775386879278N2OQPBGK82DDQHC7G3PIE5IKW6UB0D</t>
+  </si>
+  <si>
+    <t>158203764657952CB8X3ZMJY0GCE0D27C3WJR4P1GZURI</t>
+  </si>
+  <si>
+    <t>15820448382377WJICUBDVUWEM9051LDMKGG4D8ANOWKJ</t>
+  </si>
+  <si>
+    <t>1582037646571KC3DOUYV7508JKN0SBSBRDUDXDL36DQB</t>
+  </si>
+  <si>
+    <t>1582037646540YT6YO64L6OU72NULCK600KN1XLZIKF7D</t>
+  </si>
+  <si>
+    <t>15820376465563EE98G6X2MW2NOKO306SAS9PTN8BTVD4</t>
+  </si>
+  <si>
+    <t>15820391251888U5QCQXCKYF91365HXSNC51UD8KHZ5JZ</t>
+  </si>
+  <si>
+    <t>1582037646596VI0GCUQUQ72MWB55HWLKEMHA8DLQF51H</t>
+  </si>
+  <si>
+    <t>15820391251607216MHWLFGZNJNEWD5TWA0GWGSW6K54P</t>
+  </si>
+  <si>
+    <t>1582037646562SY8B9PZ8LE8L6UNBKJOSC9NXRHI4OZGY</t>
+  </si>
+  <si>
+    <t>15820444782374MUUP3H826UN17K1L9QTWSGBWE1ENXZ4</t>
+  </si>
+  <si>
+    <t>158203764653799HHMAX3ZQ72O5L7XBSTL4XTVDZ05T60</t>
+  </si>
+  <si>
+    <t>15820445382364COL157QQLY6AW7J3QFU7BTOJQKZM4V9</t>
+  </si>
+  <si>
+    <t>1582044358236VLFIPM29VGPZA415YCVO62XGSADTDDTG</t>
   </si>
   <si>
     <t>14877538687910QDTC5ATUAGHRWXL42FIWL1EAPQ9HAZU</t>
   </si>
   <si>
-    <t>1582199496205K2X6NFINOGBY481GV3563BZII1UQWA4V</t>
-  </si>
-  <si>
-    <t>158213720681294JM0GDF4FQWBEIJ5N16AZNM5CN3GFKQ</t>
-  </si>
-  <si>
-    <t>1582137206381N8E4SR0DGQRH9HRZ1DD3IBK2TIGJY08I</t>
-  </si>
-  <si>
-    <t>1582137206377519X1S8B354KGFGWYNXCZGW56JLD7IWO</t>
-  </si>
-  <si>
-    <t>15821992562059U6Z1OXXYTBPWXUYX938D6WDIO2Z2RKQ</t>
-  </si>
-  <si>
-    <t>1582137206363DCRYLYF9SA3YSK1G1U90B72OPX24AOGG</t>
-  </si>
-  <si>
-    <t>1582137206353Q5B2FBA4EMMULPIXG33N4UTZTXDLYTTG</t>
-  </si>
-  <si>
-    <t>15821987762058GUISLNNMGFF09M2UWDRDJRMSW7QG869</t>
-  </si>
-  <si>
-    <t>1582137206377G58KZJIS31338KO74PZH77ONB0WYWB9P</t>
-  </si>
-  <si>
-    <t>1582137206776DEOKS4185QWL53236EKAYSWMOY1SVU3P</t>
-  </si>
-  <si>
-    <t>1582200096206K8IOX58QAUCVOLZGD72TZ1HUFGDJWYQX</t>
-  </si>
-  <si>
-    <t>15821999762053HGMUQL2969ZMNBCJ47WOTNXXNBW5S3C</t>
-  </si>
-  <si>
-    <t>1582200576205T3PYTF2T7HPWH2S23J5UBAKZARRMLM0O</t>
-  </si>
-  <si>
-    <t>1582137206829P73J1XYGDZNN94FWR0BFC400A23UV7AI</t>
-  </si>
-  <si>
-    <t>1582137206700MRYOEQUBLAQGD5WYTZY3TS8DR3MR2074</t>
-  </si>
-  <si>
-    <t>1582200576205S8IIKGCRT6DVTK9SBBHKIDS9XG7F1MBE</t>
-  </si>
-  <si>
-    <t>1582137206705HK8U3X6U5RYQL08INLDHKUHID7ED9TIX</t>
-  </si>
-  <si>
-    <t>1582200276205QDUFFSTDS0OBRVDRY1F5YAU2XKNQDRNS</t>
-  </si>
-  <si>
-    <t>4125:588d:3f2:0:0:0:0:0</t>
-  </si>
-  <si>
-    <t>20.161.23.0</t>
-  </si>
-  <si>
-    <t>222.50.48.0</t>
-  </si>
-  <si>
-    <t>206.135.47.0</t>
-  </si>
-  <si>
-    <t>194.245.56.0</t>
+    <t>1582039125156LZYT9X6GDC2PWGUX10L2H9PM5DGNQRL7</t>
+  </si>
+  <si>
+    <t>158203912521908OQ4T05CLDQVLH3AV2Z9TQQ05PX8M88</t>
+  </si>
+  <si>
+    <t>1582044598237CACUKS8F5ED2023P6MSWGUUEFE5GOIPV</t>
+  </si>
+  <si>
+    <t>1582043518236PZC0YD3EH6Y9AFUPQGUB7GO86K9V16JP</t>
+  </si>
+  <si>
+    <t>1582039125167LEYNGF37A6L0MHJ6G5HHGDHXEX02VT63</t>
+  </si>
+  <si>
+    <t>1582037646564XOO68JH2NKOA9DLE4MFJ53PV0QYXX26N</t>
+  </si>
+  <si>
+    <t>1582037646595Z3F09WLAJJGHX8J6HAZXYUE2DGRW66RF</t>
+  </si>
+  <si>
+    <t>1582039125179REXRIGR8NS441H33T9WQJH30P5E762SN</t>
+  </si>
+  <si>
+    <t>15820376465619T1J5YOB9Y6DGHPN137Q57G90AW2DL20</t>
+  </si>
+  <si>
+    <t>15820438182375ZOK9VT1H13S1FPDNQMXX15VIUG7UVKK</t>
+  </si>
+  <si>
+    <t>1582037646527WZAOEL589S17GMHGOMBOMNN8RIEXQT9U</t>
+  </si>
+  <si>
+    <t>15820391251512R1X2JYPQZR40XDZYB6H33JOY92M47QE</t>
+  </si>
+  <si>
+    <t>1582039125147DXXFP9K9O892DNJ1FJI9YA4VOQ7MKTQN</t>
+  </si>
+  <si>
+    <t>15820376465661H2G2SN5HKK6DXKRLQT4R9QJW6E5M61I</t>
+  </si>
+  <si>
+    <t>34.171.42.0</t>
+  </si>
+  <si>
+    <t>164.242.29.0</t>
+  </si>
+  <si>
+    <t>2001:1498:ffff:0:0:0:0:0</t>
+  </si>
+  <si>
+    <t>155.13.204.0</t>
+  </si>
+  <si>
+    <t>21.133.134.0</t>
+  </si>
+  <si>
+    <t>78.32.12.0</t>
+  </si>
+  <si>
+    <t>2001:200:3fff:0:0:0:0:0</t>
+  </si>
+  <si>
+    <t>57.7.65.0</t>
+  </si>
+  <si>
+    <t>163.228.66.0</t>
+  </si>
+  <si>
+    <t>44.164.207.0</t>
+  </si>
+  <si>
+    <t>132.104.18.0</t>
+  </si>
+  <si>
+    <t>17.176.208.0</t>
+  </si>
+  <si>
+    <t>222.20.253.0</t>
+  </si>
+  <si>
+    <t>66.27.137.0</t>
+  </si>
+  <si>
+    <t>7.73.22.0</t>
+  </si>
+  <si>
+    <t>57.252.42.0</t>
+  </si>
+  <si>
+    <t>217.82.182.0</t>
+  </si>
+  <si>
+    <t>184.76.201.0</t>
+  </si>
+  <si>
+    <t>159.231.74.0</t>
   </si>
   <si>
     <t>204.97.208.0</t>
   </si>
   <si>
-    <t>51.101.51.0</t>
-  </si>
-  <si>
-    <t>194.205.214.0</t>
+    <t>24.66.236.0</t>
+  </si>
+  <si>
+    <t>109.173.224.0</t>
+  </si>
+  <si>
+    <t>236.1.220.0</t>
   </si>
   <si>
     <t>2001:1800:ffff:0:0:0:0:0</t>
   </si>
   <si>
-    <t>59.30.199.0</t>
-  </si>
-  <si>
-    <t>217.26.13.0</t>
-  </si>
-  <si>
-    <t>174.229.153.0</t>
-  </si>
-  <si>
-    <t>205.117.167.0</t>
-  </si>
-  <si>
-    <t>85.171.202.0</t>
-  </si>
-  <si>
-    <t>219.67.77.0</t>
-  </si>
-  <si>
-    <t>123.251.160.0</t>
-  </si>
-  <si>
-    <t>191.245.117.0</t>
-  </si>
-  <si>
-    <t>59.176.21.0</t>
-  </si>
-  <si>
-    <t>78.100.179.0</t>
-  </si>
-  <si>
-    <t>202.146.82.0</t>
-  </si>
-  <si>
-    <t>124.23.136.0</t>
-  </si>
-  <si>
-    <t>120.12.54.0</t>
-  </si>
-  <si>
-    <t>69.98.35.0</t>
+    <t>193.30.72.0</t>
+  </si>
+  <si>
+    <t>17.11.198.0</t>
+  </si>
+  <si>
+    <t>12.80.77.0</t>
+  </si>
+  <si>
+    <t>160.116.207.0</t>
+  </si>
+  <si>
+    <t>72.110.60.0</t>
+  </si>
+  <si>
+    <t>187.88.228.0</t>
+  </si>
+  <si>
+    <t>79.189.129.0</t>
+  </si>
+  <si>
+    <t>29.22.144.0</t>
+  </si>
+  <si>
+    <t>82.129.250.0</t>
+  </si>
+  <si>
+    <t>2001:1459:ffff:0:0:0:0:0</t>
+  </si>
+  <si>
+    <t>TELEFONICA TELXIUS</t>
+  </si>
+  <si>
+    <t>SCE</t>
+  </si>
+  <si>
+    <t>ENTANET ENTANET International Limited</t>
+  </si>
+  <si>
+    <t>WIDE-BB WIDE Project</t>
+  </si>
+  <si>
+    <t>SITA</t>
   </si>
   <si>
     <t>MICROSOFT-CORP-MSN-AS-BLOCK</t>
   </si>
   <si>
-    <t>CRNET-GD CHINA RAILWAY Internet Guangdong Branch</t>
-  </si>
-  <si>
-    <t>MEGAPATH2-</t>
-  </si>
-  <si>
-    <t>CSL</t>
+    <t>UCSD</t>
+  </si>
+  <si>
+    <t>DNIC-ASBLK-00306-00371</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING</t>
+  </si>
+  <si>
+    <t>ERX-CERNET-BKB China Education and Research Network Center</t>
+  </si>
+  <si>
+    <t>TWC-20001-PACWEST</t>
+  </si>
+  <si>
+    <t>DTAG Internet service provider operations</t>
+  </si>
+  <si>
+    <t>-Reserved AS-</t>
   </si>
   <si>
     <t>SPRINTLINK</t>
   </si>
   <si>
-    <t>CW Vodafone Group PLC</t>
+    <t>SHAW</t>
+  </si>
+  <si>
+    <t>INEA-AS</t>
   </si>
   <si>
     <t>SWCP-AS</t>
   </si>
   <si>
-    <t>KIXS-AS-KR Korea Telecom</t>
-  </si>
-  <si>
-    <t>ASN-MGTS-USPD</t>
-  </si>
-  <si>
-    <t>CELLCO</t>
-  </si>
-  <si>
-    <t>ASN-NUMERICABLE</t>
-  </si>
-  <si>
-    <t>ODN SoftBank Mobile Corp.</t>
-  </si>
-  <si>
-    <t>Claro S/A</t>
-  </si>
-  <si>
-    <t>MTNL-AP Mahanagar Telephone Nigam Limited</t>
-  </si>
-  <si>
-    <t>GCC-MPLS-PEERING GCC MPLS peering</t>
-  </si>
-  <si>
-    <t>MAXIS-AS1-AP Binariang Berhad</t>
-  </si>
-  <si>
-    <t>SXBCTV-AP SXBCTV ,Internet Service Provider</t>
-  </si>
-  <si>
-    <t>CHINA169-BACKBONE CHINA UNICOM China169 Backbone</t>
+    <t>BCC Hinter dem Turme 12</t>
+  </si>
+  <si>
+    <t>EASYLINK2</t>
+  </si>
+  <si>
+    <t>Maxihost LTDA</t>
+  </si>
+  <si>
+    <t>CELLCO-PART</t>
+  </si>
+  <si>
+    <t>TELEFÔNICA BRASIL S.A</t>
+  </si>
+  <si>
+    <t>TPNET</t>
+  </si>
+  <si>
+    <t>RAYA-AS</t>
+  </si>
+  <si>
+    <t>CERN</t>
   </si>
   <si>
     <t>Windows</t>
@@ -538,52 +655,52 @@
     <t>OS X</t>
   </si>
   <si>
-    <t>macOS</t>
-  </si>
-  <si>
     <t>Windows 7</t>
   </si>
   <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Windows 8.1</t>
+  </si>
+  <si>
     <t>Windows 10</t>
   </si>
   <si>
-    <t>Windows 8.1</t>
-  </si>
-  <si>
     <t>OS X 10.11 El Capitan</t>
   </si>
   <si>
-    <t>macOS 10.12 Sierra</t>
+    <t>Hampshire</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>North Rhine-Westphalia</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Greater Poland</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Gangwon-do</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>Rio Grande do Sul</t>
-  </si>
-  <si>
-    <t>National Capital Territory of Delhi</t>
-  </si>
-  <si>
-    <t>Baladiyat ad Dawhah</t>
-  </si>
-  <si>
-    <t>Sarawak</t>
-  </si>
-  <si>
-    <t>Shanxi</t>
-  </si>
-  <si>
-    <t>Hebei</t>
+    <t>Lower Saxony</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Pomerania</t>
+  </si>
+  <si>
+    <t>Cairo Governorate</t>
   </si>
   <si>
     <t>LANDSCAPE</t>
@@ -592,214 +709,229 @@
     <t>SATISFIED</t>
   </si>
   <si>
+    <t>FRUSTRATED</t>
+  </si>
+  <si>
     <t>TOLERATED</t>
   </si>
   <si>
-    <t>FRUSTRATED</t>
-  </si>
-  <si>
-    <t>wit</t>
-  </si>
-  <si>
-    <t>gerasimospat</t>
-  </si>
-  <si>
-    <t>monica</t>
+    <t>gerdi</t>
+  </si>
+  <si>
+    <t>eziobor</t>
+  </si>
+  <si>
+    <t>fildzhah</t>
+  </si>
+  <si>
+    <t>herold</t>
+  </si>
+  <si>
+    <t>duffnos</t>
+  </si>
+  <si>
+    <t>labuser</t>
+  </si>
+  <si>
+    <t>amaor</t>
+  </si>
+  <si>
+    <t>patakin</t>
+  </si>
+  <si>
+    <t>synthetic</t>
+  </si>
+  <si>
+    <t>donatien</t>
+  </si>
+  <si>
+    <t>onesime</t>
   </si>
   <si>
     <t>demouser</t>
   </si>
   <si>
-    <t>synthetic</t>
-  </si>
-  <si>
-    <t>annelien</t>
-  </si>
-  <si>
-    <t>roosevelt</t>
-  </si>
-  <si>
-    <t>monyyak</t>
-  </si>
-  <si>
-    <t>gerdi</t>
-  </si>
-  <si>
-    <t>onesime</t>
-  </si>
-  <si>
-    <t>agnieszka</t>
-  </si>
-  <si>
-    <t>firuzvil</t>
-  </si>
-  <si>
-    <t>christelleabr</t>
-  </si>
-  <si>
-    <t>yolondabul</t>
-  </si>
-  <si>
-    <t>nuhathr</t>
-  </si>
-  <si>
-    <t>analow</t>
-  </si>
-  <si>
-    <t>JPLAJSJEEVKSOENUDLSLKIPOBHPPILJN</t>
-  </si>
-  <si>
-    <t>KNLLLUBIPAMAPNBPHHOJABTAVKNDSHEK</t>
-  </si>
-  <si>
-    <t>NLJPFSSFOCJCPCIMFIORJHIDNOFNPAHA</t>
-  </si>
-  <si>
-    <t>AGLPEBVFVCPPJCESCASXELBPLFPDTPMT</t>
-  </si>
-  <si>
-    <t>JGRJLLXNGVPDMMIJDPOPAKSLNIFLNDJL</t>
-  </si>
-  <si>
-    <t>HPPALVUPCTONNIPKDDPOFFMBGRIHALMI</t>
-  </si>
-  <si>
-    <t>EMACPIUBFCIOMEHLFJJNPLKEHCCFJPHL</t>
-  </si>
-  <si>
-    <t>MJVPJTTLPJJBNMPTGHVPDPOQEGKMAJIQ</t>
-  </si>
-  <si>
-    <t>BFPACQPEALGAKBNSLEBIMNLGNPJMBHIN</t>
-  </si>
-  <si>
-    <t>EILIPTAGJLOTPCPJIIVBEAIFJKJLUIGL</t>
-  </si>
-  <si>
-    <t>BMWHIJQMCABKHCOAKHBIHAMIIKJOLLGI</t>
-  </si>
-  <si>
-    <t>KAJGLJQEBAPDTGBAJDBIAFESIPKLJLMT</t>
-  </si>
-  <si>
-    <t>FBBKGLBIBMNBBAGSLMPTBPLPIPFLLBFQ</t>
-  </si>
-  <si>
-    <t>NOKANVJECJOPKCFMDEUSCDBKHLDJULHJ</t>
-  </si>
-  <si>
-    <t>NAAKKLUPPGPJLJBNCCMIQNJBNCIIAMEB</t>
-  </si>
-  <si>
-    <t>IDJLKVNGBKIFFLOJFDLMLCOCIMELAKNA</t>
-  </si>
-  <si>
-    <t>EOIHMVBMQHPHHLDKLAIOJQEEEKEJBKDA</t>
-  </si>
-  <si>
-    <t>LLLOIIPAOCBJILFNLISKTBMICGDGICKM</t>
-  </si>
-  <si>
-    <t>MIBMDITJULALPFCMGMUPUOMTAALMBKCI</t>
-  </si>
-  <si>
-    <t>HOPPAPOGSFCJHKLOCPTKBXHOAMJEVDFP</t>
-  </si>
-  <si>
-    <t>LJLACNONFBBHEDMSLNBRFIEINIPOPPMN</t>
-  </si>
-  <si>
-    <t>PGJIIVAAKPMFMIBOENSMEGXPIBDJWMBV</t>
-  </si>
-  <si>
-    <t>GLJPKUJAMGSDTIPREKBKPBMVHBGLALCS</t>
-  </si>
-  <si>
-    <t>FGVJJMIKOIDERPCSFISSDMCOBSGEJLMM</t>
-  </si>
-  <si>
-    <t>KNNONBKGOKGPKANALFJBPKMGKOAOTBDJ</t>
-  </si>
-  <si>
-    <t>ELPMIIWKOPJEJIDRCDUNIGOLLAKGLKKV</t>
-  </si>
-  <si>
-    <t>MBVHCKIHFNXKPMOKFALSIOHKCDFCAPLS</t>
-  </si>
-  <si>
-    <t>BFJCLITWPOOOJAFPBBQTSDAOBCIOBMHX</t>
-  </si>
-  <si>
-    <t>FGIJLPPMBHOOAIDIDAARILKDJEEORHFQ</t>
-  </si>
-  <si>
-    <t>DAPCLMAJFKMGNNEKOLFJAJBANOFIWPMD</t>
-  </si>
-  <si>
-    <t>EOMBCGJABKMBNHMBDELCDNICMOEFVHCH</t>
-  </si>
-  <si>
-    <t>PMMLLJAHALPKCFPWMHIHLMGFNOKEVBKN</t>
-  </si>
-  <si>
-    <t>IJSDGFKHEHJCUIGJEHHHCAEEDXBIAMHG</t>
-  </si>
-  <si>
-    <t>CGIPBMFCVNGEJFHRMBJOIIJPAPBDAGPH</t>
-  </si>
-  <si>
-    <t>DELDJILMOKQNXJGBPGNJGIEIDQFHPKLK</t>
-  </si>
-  <si>
-    <t>IIVFGABNHDMCHMITIFBXEFJPCICGKMAT</t>
-  </si>
-  <si>
-    <t>NBAFPTXOIAPPKJBRMJKXIPNLLMFHVLEP</t>
-  </si>
-  <si>
-    <t>EJKBLVVXGEAOGICWGMMSJGDFDNIMBPLB</t>
-  </si>
-  <si>
-    <t>FMTICLMLPEBPBPGRIKILXPEFGPEHVPMI</t>
-  </si>
-  <si>
-    <t>GNLPMIMIBGDSDMGBJIEAOOPPSMLJMLHM</t>
-  </si>
-  <si>
-    <t>LELGJJIEOLHFPHEVKHDKGBPJHPFINCPI</t>
-  </si>
-  <si>
-    <t>LCKILNGPJGFDMAHKPCCGNALOCIPBUJHL</t>
-  </si>
-  <si>
-    <t>BPMHCGFMBCOGOIJJFEDJCPPLDXKDSLCC</t>
-  </si>
-  <si>
-    <t>NBILIHGAEBDCIFFAPBAMIFLKKFIIRAHC</t>
-  </si>
-  <si>
-    <t>HBLFAKKPDEAJOCOLAGMKIODOFLNCLDFM</t>
-  </si>
-  <si>
-    <t>BGVKMCEFSPJXMBATFBLIHJKCAONMLGMO</t>
-  </si>
-  <si>
-    <t>IFUDLMLKLJTBKIHKKIMBJMGILPIETOKC</t>
-  </si>
-  <si>
-    <t>GEWFGLLLFKFHANBULLANAKPBHGHDJIHO</t>
-  </si>
-  <si>
-    <t>MBNBBCALLITHELCVBKAJMMBBPGJDBCDN</t>
-  </si>
-  <si>
-    <t>KBMPDAEPLUCGCIJIADJKPJNCFIJFOAGG</t>
+    <t>jelaale</t>
+  </si>
+  <si>
+    <t>fernandakee</t>
+  </si>
+  <si>
+    <t>leng</t>
+  </si>
+  <si>
+    <t>sybylla</t>
+  </si>
+  <si>
+    <t>ramadanver</t>
+  </si>
+  <si>
+    <t>daisuke</t>
+  </si>
+  <si>
+    <t>kustaakos</t>
+  </si>
+  <si>
+    <t>margitakev</t>
+  </si>
+  <si>
+    <t>mariusz</t>
+  </si>
+  <si>
+    <t>LOBLAPIBDOJBKFEWMDKPAGNOFKHPACIH</t>
+  </si>
+  <si>
+    <t>CALCGGHDMILWLPGAKCMMBOCMWALMRDHK</t>
+  </si>
+  <si>
+    <t>ICTJNHLJMPIJNLCNPGPAJNBKULJNLJFC</t>
+  </si>
+  <si>
+    <t>FMVPLIDLJAKCIMHTOKCFIDLLEFICPOEN</t>
+  </si>
+  <si>
+    <t>IMPMAKAHEPPCECOBLNBNOGAKJFFDIBAO</t>
+  </si>
+  <si>
+    <t>IDBIFBPJHKDNPBMBPHIHIKHARHKNVBMP</t>
+  </si>
+  <si>
+    <t>EBODHOEJHLCCKCCOMGNEEBOPLCGENEKN</t>
+  </si>
+  <si>
+    <t>NLRGKKMHHPCGNMBULIDGFFSPPVGMMLMK</t>
+  </si>
+  <si>
+    <t>NJNICNMFAFLXBIBAACFPFNMOSMMOIOHI</t>
+  </si>
+  <si>
+    <t>GNKLBMFMLCBNKJOSMGEGJBAMIJCHRDBA</t>
+  </si>
+  <si>
+    <t>NOMJKBMMKKDFDDMRLAFONOGNBFFHMLNH</t>
+  </si>
+  <si>
+    <t>INMHGHNUCOJEOJFAFJAEOKFMMTFMJOED</t>
+  </si>
+  <si>
+    <t>JIRCONFMABMNAAOWAOFNLNNPLPBNTBJC</t>
+  </si>
+  <si>
+    <t>GAMPKANPLHKVFKMLDLPBSFCESBIBLOCF</t>
+  </si>
+  <si>
+    <t>PAVKNIMIMFPHGPJNKIFFBEKAGABEJGNC</t>
+  </si>
+  <si>
+    <t>CLNBMMNHALNOUDDRGAGNGJOILNLFJLLH</t>
+  </si>
+  <si>
+    <t>HINDMIEGBAIATBMKMDGKMLFCGICDRCDJ</t>
+  </si>
+  <si>
+    <t>LPTPNHKFANCJIKAVENFDNFIIMCJNACED</t>
+  </si>
+  <si>
+    <t>LHWKAGODJKAKABCNLJFPIKHHCDFERAMP</t>
+  </si>
+  <si>
+    <t>JPTDEHCGBHNPADDIOGGIMIPLONNNWDJP</t>
+  </si>
+  <si>
+    <t>MMVFNEOIPFDAPJHKJEFAHMPNIMLGJFGP</t>
+  </si>
+  <si>
+    <t>AFPMFEGLPJFOJHAWJIMDNOJCPIEMKCOC</t>
+  </si>
+  <si>
+    <t>LNTLGPJAALBJLDCAJOGDBIFFEFIMPAJH</t>
+  </si>
+  <si>
+    <t>NNMDJBDOAQCUCKDILAFGPBNGSDCLBJDH</t>
+  </si>
+  <si>
+    <t>NPKGBINJNKNFLIMRODMNHMJGBFNMRKGD</t>
+  </si>
+  <si>
+    <t>MEVCFPJAPBISAKBKIAKNIMPCIDICUKHN</t>
+  </si>
+  <si>
+    <t>NBPKBGCHSOFPCFDODJDFKSMNIBCBPJEB</t>
+  </si>
+  <si>
+    <t>IOBOGMJOGIELNCDOAJDKPCQFAONPTDDF</t>
+  </si>
+  <si>
+    <t>GPJMBNINGOMGHIMKJMNBNKDKNHKHJJLM</t>
+  </si>
+  <si>
+    <t>IHKLBAFPGEJSGBMRBAPINLDKWLKCIPFM</t>
+  </si>
+  <si>
+    <t>AEBDCGPOSOLPPBDUHGNFFNHPDMNGBHCN</t>
+  </si>
+  <si>
+    <t>LLPMCFALJDJSLIGMBEMJOJIGVMNFWKKJ</t>
+  </si>
+  <si>
+    <t>NMABOPFMNTNMIICKIMECCKPKTSGCUKJN</t>
+  </si>
+  <si>
+    <t>BAMLBPMOAOBDHMPIPIJPDLGMPDIOOFHF</t>
+  </si>
+  <si>
+    <t>EIPIFPEGIMVHFHNKOHFFJDEPADCHPAIB</t>
+  </si>
+  <si>
+    <t>IMOKAECOOMUNBGEMOHPAPAJABKHOVOLP</t>
+  </si>
+  <si>
+    <t>KDLKDPADSGCEOBEAEBGGARLLBACHACDC</t>
+  </si>
+  <si>
+    <t>BHOMAOCOODCPJHHLKCMLLOECBBMGWAKN</t>
+  </si>
+  <si>
+    <t>MNPBJNHBIEJMUAMUFJMAOOCAKPKCIBFD</t>
+  </si>
+  <si>
+    <t>IBMMLPBCJHJHBDJWMBBOFBKPMJDPLMCG</t>
+  </si>
+  <si>
+    <t>ECRLJNDAAIOAHGLWLJNJAICOIPPGMBJN</t>
+  </si>
+  <si>
+    <t>EBSBBBIJFJMOIIDIGEODIMKVEDCILOCE</t>
+  </si>
+  <si>
+    <t>ILUIKKKAPGMDNKMNOKMNONNBEDPMKDLJ</t>
+  </si>
+  <si>
+    <t>NHKCOFHVXAHFOIPKLFHDRXGMBIPBIEHA</t>
+  </si>
+  <si>
+    <t>IMKEEHNNDLKKEKBNDJNIHGPJOBINOCON</t>
+  </si>
+  <si>
+    <t>ICSIJEMFKKTJODFSDHFBJLPPDGIPAGJK</t>
+  </si>
+  <si>
+    <t>PFKGIMCBIBCFVBNVKBNKKNNBDNAEAIGF</t>
+  </si>
+  <si>
+    <t>IBPCHGIGNHGIIIEREEEJDMIOXKFLWHEK</t>
+  </si>
+  <si>
+    <t>GAIGDNDNHPKCPEMPLFCPFHHADCNPVLAI</t>
+  </si>
+  <si>
+    <t>DDLLNPGHPUBJCLORBDCCDLNQFPIBLPBB</t>
+  </si>
+  <si>
+    <t>REAL_USER</t>
   </si>
   <si>
     <t>SYNTHETIC</t>
-  </si>
-  <si>
-    <t>REAL_USER</t>
   </si>
   <si>
     <t>ROBOT</t>
@@ -1179,7 +1311,7 @@
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" customWidth="1"/>
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
@@ -1191,7 +1323,7 @@
     <col min="23" max="23" width="18.7109375" customWidth="1"/>
     <col min="24" max="24" width="47.7109375" customWidth="1"/>
     <col min="25" max="25" width="26.7109375" customWidth="1"/>
-    <col min="26" max="26" width="50.7109375" customWidth="1"/>
+    <col min="26" max="26" width="60.7109375" customWidth="1"/>
     <col min="27" max="27" width="16.7109375" customWidth="1"/>
     <col min="28" max="28" width="14.7109375" customWidth="1"/>
     <col min="29" max="29" width="25.7109375" customWidth="1"/>
@@ -1200,7 +1332,7 @@
     <col min="32" max="32" width="20.7109375" customWidth="1"/>
     <col min="33" max="33" width="10.7109375" customWidth="1"/>
     <col min="34" max="34" width="23.7109375" customWidth="1"/>
-    <col min="35" max="35" width="37.7109375" customWidth="1"/>
+    <col min="35" max="35" width="24.7109375" customWidth="1"/>
     <col min="36" max="36" width="11.7109375" customWidth="1"/>
     <col min="37" max="37" width="13.7109375" customWidth="1"/>
     <col min="38" max="38" width="14.7109375" customWidth="1"/>
@@ -1212,7 +1344,7 @@
     <col min="44" max="44" width="25.7109375" customWidth="1"/>
     <col min="45" max="45" width="17.7109375" customWidth="1"/>
     <col min="46" max="46" width="21.7109375" customWidth="1"/>
-    <col min="47" max="47" width="15.7109375" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
     <col min="48" max="48" width="34.7109375" customWidth="1"/>
     <col min="49" max="49" width="11.7109375" customWidth="1"/>
   </cols>
@@ -1379,89 +1511,98 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="S2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T2">
-        <v>13431</v>
+        <v>350</v>
       </c>
       <c r="U2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V2">
-        <v>1582199730038</v>
+        <v>1582044967220</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI2" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="AM2">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="AN2" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO2">
-        <v>1280</v>
+        <v>1920</v>
       </c>
       <c r="AP2">
-        <v>1582199716607</v>
+        <v>1582044966870</v>
       </c>
       <c r="AQ2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AW2" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="AX2" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1475,85 +1616,82 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="S3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T3">
+        <v>206</v>
+      </c>
+      <c r="U3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3">
+        <v>1582045172359</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM3">
+        <v>1024</v>
+      </c>
+      <c r="AN3" t="s">
         <v>229</v>
       </c>
-      <c r="U3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3">
-        <v>1582199216592</v>
-      </c>
-      <c r="X3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM3">
-        <v>900</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>190</v>
-      </c>
       <c r="AO3">
-        <v>1440</v>
+        <v>1280</v>
       </c>
       <c r="AP3">
-        <v>1582199216363</v>
+        <v>1582045172153</v>
       </c>
       <c r="AQ3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1565,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="AU3" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AW3" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="AX3" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1582,61 +1720,61 @@
         <v>49</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="S4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T4">
-        <v>26923</v>
+        <v>19685</v>
       </c>
       <c r="U4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V4">
-        <v>1582198076988</v>
+        <v>1582045173510</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Z4" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AA4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="AB4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF4" t="b">
         <v>0</v>
@@ -1645,46 +1783,43 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI4" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="AM4">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="AN4" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO4">
-        <v>1920</v>
+        <v>1280</v>
       </c>
       <c r="AP4">
-        <v>1582198050065</v>
+        <v>1582045153825</v>
       </c>
       <c r="AQ4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AW4" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="AX4" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1698,58 +1833,58 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T5">
-        <v>26622</v>
+        <v>11259</v>
       </c>
       <c r="U5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V5">
-        <v>1582199509887</v>
+        <v>1582045166026</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="Z5" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AA5" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="b">
         <v>0</v>
@@ -1758,25 +1893,25 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI5" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AM5">
-        <v>1080</v>
+        <v>768</v>
       </c>
       <c r="AN5" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO5">
-        <v>1920</v>
+        <v>1366</v>
       </c>
       <c r="AP5">
-        <v>1582199483265</v>
+        <v>1582045154767</v>
       </c>
       <c r="AQ5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1785,19 +1920,16 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="AW5" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="AX5" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1808,109 +1940,106 @@
         <v>49</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="S6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T6">
-        <v>26662</v>
+        <v>263</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V6">
-        <v>1582199543629</v>
+        <v>1582045222191</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Z6" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="AA6" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI6" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="AM6">
         <v>768</v>
       </c>
       <c r="AN6" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO6">
         <v>1366</v>
       </c>
       <c r="AP6">
-        <v>1582199516967</v>
+        <v>1582045221928</v>
       </c>
       <c r="AQ6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="AW6" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="AX6" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1924,58 +2053,55 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T7">
-        <v>14143</v>
+        <v>8447</v>
       </c>
       <c r="U7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V7">
-        <v>1582199380520</v>
+        <v>1582045139723</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="Z7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="b">
         <v>0</v>
@@ -1984,25 +2110,25 @@
         <v>0</v>
       </c>
       <c r="AH7" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AM7">
         <v>1080</v>
       </c>
       <c r="AN7" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO7">
         <v>1920</v>
       </c>
       <c r="AP7">
-        <v>1582199366377</v>
+        <v>1582045131276</v>
       </c>
       <c r="AQ7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2011,16 +2137,19 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>233</v>
       </c>
       <c r="AW7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="AX7" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -2034,58 +2163,61 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T8">
-        <v>46791</v>
+        <v>11188</v>
       </c>
       <c r="U8" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V8">
-        <v>1582199694805</v>
+        <v>1582045157095</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Z8" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AA8" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="b">
         <v>0</v>
@@ -2094,46 +2226,46 @@
         <v>0</v>
       </c>
       <c r="AH8" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI8" t="s">
-        <v>176</v>
+        <v>214</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>218</v>
       </c>
       <c r="AM8">
-        <v>768</v>
+        <v>1200</v>
       </c>
       <c r="AN8" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO8">
-        <v>1024</v>
+        <v>1920</v>
       </c>
       <c r="AP8">
-        <v>1582199648014</v>
+        <v>1582045145907</v>
       </c>
       <c r="AQ8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AW8" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="AX8" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2144,61 +2276,61 @@
         <v>49</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T9">
-        <v>26154</v>
+        <v>193</v>
       </c>
       <c r="U9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V9">
-        <v>1582199407767</v>
+        <v>1582045079370</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AA9" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="AB9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="b">
         <v>0</v>
@@ -2207,46 +2339,43 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI9" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="AM9">
-        <v>1080</v>
+        <v>768</v>
       </c>
       <c r="AN9" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO9">
-        <v>1920</v>
+        <v>1366</v>
       </c>
       <c r="AP9">
-        <v>1582199381613</v>
+        <v>1582045079177</v>
       </c>
       <c r="AQ9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AW9" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="AX9" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2260,94 +2389,109 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T10">
-        <v>19970</v>
+        <v>11307</v>
       </c>
       <c r="U10" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V10">
-        <v>1582199568962</v>
+        <v>1582045076839</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Z10" t="s">
-        <v>137</v>
+        <v>157</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>188</v>
       </c>
       <c r="AB10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
+      <c r="AH10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>218</v>
+      </c>
       <c r="AM10">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="AN10" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO10">
         <v>1920</v>
       </c>
       <c r="AP10">
-        <v>1582199548992</v>
+        <v>1582045065532</v>
       </c>
       <c r="AQ10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AU10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AW10" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="AX10" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2361,52 +2505,58 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T11">
-        <v>227</v>
+        <v>21886</v>
       </c>
       <c r="U11" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V11">
-        <v>1582199571707</v>
+        <v>1582045111424</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Z11" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="AA11" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="AB11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="b">
         <v>0</v>
@@ -2415,25 +2565,25 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="AI11" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AM11">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="AN11" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO11">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="AP11">
-        <v>1582199571480</v>
+        <v>1582045089538</v>
       </c>
       <c r="AQ11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -2445,13 +2595,13 @@
         <v>1</v>
       </c>
       <c r="AU11" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AW11" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="AX11" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -2465,106 +2615,106 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="S12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T12">
-        <v>23592</v>
+        <v>7989</v>
       </c>
       <c r="U12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V12">
-        <v>1582199579633</v>
+        <v>1582044882058</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Z12" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI12" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AM12">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="AN12" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO12">
-        <v>1440</v>
+        <v>640</v>
       </c>
       <c r="AP12">
-        <v>1582199556041</v>
+        <v>1582044874069</v>
       </c>
       <c r="AQ12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AU12" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="AV12" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="AW12" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="AX12" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -2581,58 +2731,55 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" t="s">
         <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T13">
-        <v>23336</v>
+        <v>11084</v>
       </c>
       <c r="U13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V13">
-        <v>1582199259055</v>
+        <v>1582044913131</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Z13" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="AB13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="b">
         <v>0</v>
@@ -2641,28 +2788,25 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="AM13">
         <v>768</v>
       </c>
       <c r="AN13" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO13">
         <v>1366</v>
       </c>
       <c r="AP13">
-        <v>1582199235719</v>
+        <v>1582044902047</v>
       </c>
       <c r="AQ13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -2671,19 +2815,16 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AW13" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="AX13" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -2697,61 +2838,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T14">
-        <v>28387</v>
+        <v>11266</v>
       </c>
       <c r="U14" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V14">
-        <v>1582199321764</v>
+        <v>1582044800488</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Z14" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="AB14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="b">
         <v>0</v>
@@ -2760,28 +2898,25 @@
         <v>0</v>
       </c>
       <c r="AH14" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="AM14">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN14" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO14">
-        <v>1366</v>
+        <v>1920</v>
       </c>
       <c r="AP14">
-        <v>1582199293377</v>
+        <v>1582044789222</v>
       </c>
       <c r="AQ14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -2790,19 +2925,19 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AU14" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV14" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="AW14" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="AX14" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -2816,109 +2951,106 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" t="s">
         <v>71</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="S15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T15">
-        <v>13080</v>
+        <v>13276</v>
       </c>
       <c r="U15" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V15">
-        <v>1582199273773</v>
+        <v>1582044830084</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Z15" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="AA15" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AB15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI15" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AM15">
-        <v>1080</v>
+        <v>768</v>
       </c>
       <c r="AN15" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO15">
-        <v>1920</v>
+        <v>1366</v>
       </c>
       <c r="AP15">
-        <v>1582199260693</v>
+        <v>1582044816808</v>
       </c>
       <c r="AQ15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="s">
-        <v>191</v>
+        <v>232</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>236</v>
       </c>
       <c r="AW15" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="AX15" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -2932,58 +3064,58 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="S16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T16">
-        <v>26280</v>
+        <v>11157</v>
       </c>
       <c r="U16" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V16">
-        <v>1582198984323</v>
+        <v>1582044114521</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="Z16" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="AA16" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="AB16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF16" t="b">
         <v>0</v>
@@ -2992,25 +3124,25 @@
         <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI16" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="AM16">
-        <v>1080</v>
+        <v>768</v>
       </c>
       <c r="AN16" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO16">
-        <v>1920</v>
+        <v>1366</v>
       </c>
       <c r="AP16">
-        <v>1582198958043</v>
+        <v>1582044103364</v>
       </c>
       <c r="AQ16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -3019,19 +3151,19 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV16" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="AW16" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="AX16" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -3045,61 +3177,61 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="S17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T17">
-        <v>32932</v>
+        <v>20605</v>
       </c>
       <c r="U17" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V17">
-        <v>1582199139084</v>
+        <v>1582044112802</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Z17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AA17" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="AB17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF17" t="b">
         <v>0</v>
@@ -3108,28 +3240,28 @@
         <v>0</v>
       </c>
       <c r="AH17" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI17" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="AJ17" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AM17">
-        <v>768</v>
+        <v>1200</v>
       </c>
       <c r="AN17" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO17">
-        <v>1366</v>
+        <v>1920</v>
       </c>
       <c r="AP17">
-        <v>1582199106152</v>
+        <v>1582044092197</v>
       </c>
       <c r="AQ17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -3138,19 +3270,19 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV17" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="AW17" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="AX17" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -3161,61 +3293,61 @@
         <v>49</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="S18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T18">
-        <v>10016</v>
+        <v>285</v>
       </c>
       <c r="U18" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V18">
-        <v>1582197101666</v>
+        <v>1582044121498</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="Z18" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AA18" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="AB18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF18" t="b">
         <v>0</v>
@@ -3224,43 +3356,43 @@
         <v>0</v>
       </c>
       <c r="AH18" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI18" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="AM18">
-        <v>768</v>
+        <v>360</v>
       </c>
       <c r="AN18" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO18">
-        <v>1024</v>
+        <v>640</v>
       </c>
       <c r="AP18">
-        <v>1582197091650</v>
+        <v>1582044121213</v>
       </c>
       <c r="AQ18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR18">
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AW18" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="AX18" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -3277,58 +3409,58 @@
         <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T19">
-        <v>23110</v>
+        <v>249</v>
       </c>
       <c r="U19" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V19">
-        <v>1582198875232</v>
+        <v>1582043478394</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="Z19" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="AA19" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="AB19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF19" t="b">
         <v>0</v>
@@ -3337,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="AH19" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI19" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="AJ19" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="AM19">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="AN19" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO19">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="AP19">
-        <v>1582198852122</v>
+        <v>1582043478145</v>
       </c>
       <c r="AQ19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -3367,19 +3499,16 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AW19" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="AX19" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -3390,64 +3519,58 @@
         <v>49</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T20">
-        <v>212</v>
+        <v>11271</v>
       </c>
       <c r="U20" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V20">
-        <v>1582198890086</v>
+        <v>1582043503236</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z20" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AB20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="b">
         <v>0</v>
@@ -3456,46 +3579,46 @@
         <v>0</v>
       </c>
       <c r="AH20" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="AM20">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN20" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO20">
-        <v>1366</v>
+        <v>1920</v>
       </c>
       <c r="AP20">
-        <v>1582198889874</v>
+        <v>1582043491965</v>
       </c>
       <c r="AQ20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR20">
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>239</v>
       </c>
       <c r="AW20" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="AX20" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -3506,61 +3629,61 @@
         <v>49</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R21" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="S21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T21">
-        <v>22955</v>
+        <v>230</v>
       </c>
       <c r="U21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V21">
-        <v>1582198413272</v>
+        <v>1582044513405</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Z21" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="AA21" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="AB21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="b">
         <v>0</v>
@@ -3569,46 +3692,43 @@
         <v>0</v>
       </c>
       <c r="AH21" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI21" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="AM21">
-        <v>1080</v>
+        <v>768</v>
       </c>
       <c r="AN21" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO21">
-        <v>1920</v>
+        <v>1366</v>
       </c>
       <c r="AP21">
-        <v>1582198390317</v>
+        <v>1582044513175</v>
       </c>
       <c r="AQ21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AW21" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="AX21" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -3619,61 +3739,61 @@
         <v>49</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="S22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T22">
-        <v>721</v>
+        <v>49111</v>
       </c>
       <c r="U22" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V22">
-        <v>1582198430037</v>
+        <v>1582044499363</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Z22" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="AA22" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="AB22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF22" t="b">
         <v>0</v>
@@ -3682,43 +3802,46 @@
         <v>0</v>
       </c>
       <c r="AH22" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI22" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="AM22">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="AN22" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO22">
-        <v>1024</v>
+        <v>1280</v>
       </c>
       <c r="AP22">
-        <v>1582198429316</v>
+        <v>1582044450252</v>
       </c>
       <c r="AQ22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR22">
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AU22" t="s">
-        <v>191</v>
+        <v>232</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>240</v>
       </c>
       <c r="AW22" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="AX22" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -3732,58 +3855,55 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R23" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T23">
-        <v>27124</v>
+        <v>8169</v>
       </c>
       <c r="U23" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V23">
-        <v>1582198474796</v>
+        <v>1582044543027</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="Z23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AB23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="b">
         <v>0</v>
@@ -3792,25 +3912,25 @@
         <v>0</v>
       </c>
       <c r="AH23" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AI23" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="AM23">
-        <v>1080</v>
+        <v>600</v>
       </c>
       <c r="AN23" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO23">
-        <v>1920</v>
+        <v>800</v>
       </c>
       <c r="AP23">
-        <v>1582198447672</v>
+        <v>1582044534858</v>
       </c>
       <c r="AQ23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -3819,19 +3939,16 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AW23" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="AX23" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -3845,58 +3962,61 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
       </c>
       <c r="M24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R24" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="S24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T24">
-        <v>265</v>
+        <v>11775</v>
       </c>
       <c r="U24" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V24">
-        <v>1582198781004</v>
+        <v>1582044517727</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Z24" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AA24" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="AB24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF24" t="b">
         <v>0</v>
@@ -3905,25 +4025,28 @@
         <v>0</v>
       </c>
       <c r="AH24" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI24" t="s">
-        <v>175</v>
+        <v>214</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>218</v>
       </c>
       <c r="AM24">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="AN24" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO24">
         <v>1920</v>
       </c>
       <c r="AP24">
-        <v>1582198780739</v>
+        <v>1582044505952</v>
       </c>
       <c r="AQ24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -3932,16 +4055,19 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>238</v>
       </c>
       <c r="AW24" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="AX24" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -3952,55 +4078,58 @@
         <v>49</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R25" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="S25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T25">
-        <v>5010</v>
+        <v>17525</v>
       </c>
       <c r="U25" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V25">
-        <v>1582198785437</v>
+        <v>1582044546657</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Z25" t="s">
-        <v>143</v>
+        <v>167</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>190</v>
       </c>
       <c r="AB25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF25" t="b">
         <v>1</v>
@@ -4012,34 +4141,37 @@
         <v>900</v>
       </c>
       <c r="AN25" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO25">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="AP25">
-        <v>1582198780427</v>
+        <v>1582044529132</v>
       </c>
       <c r="AQ25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="s">
-        <v>192</v>
+        <v>232</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>241</v>
       </c>
       <c r="AW25" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="AX25" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -4053,58 +4185,61 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
       </c>
       <c r="M26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R26" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T26">
-        <v>77037</v>
+        <v>11416</v>
       </c>
       <c r="U26" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V26">
-        <v>1582198843472</v>
+        <v>1582044583606</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="Z26" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AA26" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="AB26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF26" t="b">
         <v>0</v>
@@ -4113,25 +4248,28 @@
         <v>0</v>
       </c>
       <c r="AH26" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI26" t="s">
-        <v>176</v>
+        <v>216</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>220</v>
       </c>
       <c r="AM26">
         <v>768</v>
       </c>
       <c r="AN26" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO26">
-        <v>1024</v>
+        <v>1366</v>
       </c>
       <c r="AP26">
-        <v>1582198766435</v>
+        <v>1582044572190</v>
       </c>
       <c r="AQ26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -4140,19 +4278,19 @@
         <v>1</v>
       </c>
       <c r="AT26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV26" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="AW26" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="AX26" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -4163,109 +4301,100 @@
         <v>49</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R27" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T27">
-        <v>23027</v>
+        <v>237</v>
       </c>
       <c r="U27" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V27">
-        <v>1582198173430</v>
+        <v>1582044568959</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="Z27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AB27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
-      <c r="AH27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>177</v>
+      <c r="AJ27" t="s">
+        <v>221</v>
       </c>
       <c r="AM27">
         <v>1080</v>
       </c>
       <c r="AN27" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO27">
         <v>1920</v>
       </c>
       <c r="AP27">
-        <v>1582198150403</v>
+        <v>1582044568722</v>
       </c>
       <c r="AQ27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR27">
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="AW27" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AX27" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -4279,85 +4408,85 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R28" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T28">
-        <v>13238</v>
+        <v>15242</v>
       </c>
       <c r="U28" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V28">
-        <v>1582199085037</v>
+        <v>1582044402256</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="Z28" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="AA28" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AB28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI28" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="AM28">
         <v>768</v>
       </c>
       <c r="AN28" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO28">
-        <v>1024</v>
+        <v>1366</v>
       </c>
       <c r="AP28">
-        <v>1582199071799</v>
+        <v>1582044387014</v>
       </c>
       <c r="AQ28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -4366,16 +4495,16 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AW28" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="AX28" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -4392,58 +4521,55 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O29" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R29" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T29">
-        <v>47852</v>
+        <v>8116</v>
       </c>
       <c r="U29" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V29">
-        <v>1582198923103</v>
+        <v>1582044466880</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Z29" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="AA29" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="AB29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF29" t="b">
         <v>0</v>
@@ -4452,49 +4578,46 @@
         <v>0</v>
       </c>
       <c r="AH29" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI29" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="AM29">
-        <v>900</v>
+        <v>768</v>
       </c>
       <c r="AN29" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO29">
-        <v>1440</v>
+        <v>1366</v>
       </c>
       <c r="AP29">
-        <v>1582198875251</v>
+        <v>1582044458764</v>
       </c>
       <c r="AQ29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29">
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AV29" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="AW29" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="AX29" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -4508,58 +4631,58 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T30">
-        <v>244</v>
+        <v>11203</v>
       </c>
       <c r="U30" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V30">
-        <v>1582198912934</v>
+        <v>1582044476827</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="Z30" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AA30" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="AB30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF30" t="b">
         <v>0</v>
@@ -4568,25 +4691,25 @@
         <v>0</v>
       </c>
       <c r="AH30" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI30" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="AM30">
         <v>1080</v>
       </c>
       <c r="AN30" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO30">
         <v>1920</v>
       </c>
       <c r="AP30">
-        <v>1582198912690</v>
+        <v>1582044465624</v>
       </c>
       <c r="AQ30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -4595,16 +4718,19 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>244</v>
       </c>
       <c r="AW30" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="AX30" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:50">
@@ -4618,61 +4744,58 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T31">
-        <v>22595</v>
+        <v>8091</v>
       </c>
       <c r="U31" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V31">
-        <v>1582200024045</v>
+        <v>1582044432042</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="Z31" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="AA31" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="AB31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF31" t="b">
         <v>0</v>
@@ -4681,28 +4804,25 @@
         <v>0</v>
       </c>
       <c r="AH31" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI31" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="AM31">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN31" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO31">
-        <v>1366</v>
+        <v>1920</v>
       </c>
       <c r="AP31">
-        <v>1582200001450</v>
+        <v>1582044423951</v>
       </c>
       <c r="AQ31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -4711,19 +4831,16 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="AW31" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="AX31" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -4737,58 +4854,61 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T32">
-        <v>13720</v>
+        <v>11851</v>
       </c>
       <c r="U32" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V32">
-        <v>1582200203168</v>
+        <v>1582044299098</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
       </c>
       <c r="Y32" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="Z32" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="AA32" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="AB32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF32" t="b">
         <v>0</v>
@@ -4797,25 +4917,28 @@
         <v>0</v>
       </c>
       <c r="AH32" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI32" t="s">
-        <v>176</v>
+        <v>216</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>222</v>
       </c>
       <c r="AM32">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN32" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO32">
-        <v>1024</v>
+        <v>1920</v>
       </c>
       <c r="AP32">
-        <v>1582200189448</v>
+        <v>1582044287247</v>
       </c>
       <c r="AQ32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -4824,16 +4947,19 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AU32" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>245</v>
       </c>
       <c r="AW32" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="AX32" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -4847,61 +4973,61 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="S33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T33">
-        <v>35999</v>
+        <v>12992</v>
       </c>
       <c r="U33" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V33">
-        <v>1582200197443</v>
+        <v>1582044645795</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="Z33" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="AA33" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="AB33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF33" t="b">
         <v>0</v>
@@ -4910,49 +5036,49 @@
         <v>0</v>
       </c>
       <c r="AH33" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI33" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="AJ33" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AM33">
-        <v>1080</v>
+        <v>768</v>
       </c>
       <c r="AN33" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO33">
-        <v>1920</v>
+        <v>1024</v>
       </c>
       <c r="AP33">
-        <v>1582200161444</v>
+        <v>1582044632803</v>
       </c>
       <c r="AQ33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS33">
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AU33" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="AV33" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="AW33" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="AX33" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -4963,112 +5089,94 @@
         <v>49</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M34" t="s">
-        <v>82</v>
-      </c>
-      <c r="N34" t="s">
-        <v>83</v>
-      </c>
-      <c r="O34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T34">
-        <v>10003</v>
+        <v>12800</v>
       </c>
       <c r="U34" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V34">
-        <v>1582200074082</v>
+        <v>1582044620292</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="Z34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AB34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
         <v>0</v>
       </c>
       <c r="AH34" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI34" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AM34">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN34" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO34">
-        <v>1366</v>
+        <v>1920</v>
       </c>
       <c r="AP34">
-        <v>1582200064079</v>
+        <v>1582044607492</v>
       </c>
       <c r="AQ34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR34">
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="AW34" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="AX34" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -5082,58 +5190,58 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O35" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R35" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T35">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="U35" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V35">
-        <v>1582200085625</v>
+        <v>1582044662615</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="Z35" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="AA35" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="AB35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF35" t="b">
         <v>0</v>
@@ -5142,25 +5250,25 @@
         <v>0</v>
       </c>
       <c r="AH35" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI35" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="AM35">
         <v>1080</v>
       </c>
       <c r="AN35" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO35">
         <v>1920</v>
       </c>
       <c r="AP35">
-        <v>1582200085450</v>
+        <v>1582044662415</v>
       </c>
       <c r="AQ35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -5172,13 +5280,13 @@
         <v>1</v>
       </c>
       <c r="AU35" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AW35" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="AX35" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -5189,58 +5297,64 @@
         <v>49</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K36" t="s">
+        <v>80</v>
       </c>
       <c r="M36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R36" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T36">
-        <v>26739</v>
+        <v>220</v>
       </c>
       <c r="U36" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V36">
-        <v>1582200122418</v>
+        <v>1582043527637</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="Z36" t="s">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>202</v>
       </c>
       <c r="AB36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF36" t="b">
         <v>1</v>
@@ -5249,46 +5363,46 @@
         <v>0</v>
       </c>
       <c r="AH36" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="AI36" t="s">
-        <v>176</v>
+        <v>217</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>224</v>
       </c>
       <c r="AM36">
-        <v>1050</v>
+        <v>1024</v>
       </c>
       <c r="AN36" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO36">
-        <v>1680</v>
+        <v>1280</v>
       </c>
       <c r="AP36">
-        <v>1582200095679</v>
+        <v>1582043527417</v>
       </c>
       <c r="AQ36" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR36">
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="AW36" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="AX36" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -5305,55 +5419,58 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K37" t="s">
+        <v>81</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O37" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R37" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="S37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T37">
-        <v>22640</v>
+        <v>11172</v>
       </c>
       <c r="U37" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V37">
-        <v>1582199793985</v>
+        <v>1582043578685</v>
       </c>
       <c r="X37" t="b">
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="Z37" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="AA37" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="AB37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF37" t="b">
         <v>0</v>
@@ -5362,46 +5479,46 @@
         <v>0</v>
       </c>
       <c r="AH37" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI37" t="s">
-        <v>177</v>
+        <v>213</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>225</v>
       </c>
       <c r="AM37">
-        <v>1080</v>
+        <v>768</v>
       </c>
       <c r="AN37" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO37">
-        <v>1920</v>
+        <v>1366</v>
       </c>
       <c r="AP37">
-        <v>1582199771345</v>
+        <v>1582043567513</v>
       </c>
       <c r="AQ37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37">
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AU37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="AW37" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="AX37" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -5415,58 +5532,58 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R38" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="S38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T38">
-        <v>27276</v>
+        <v>11930</v>
       </c>
       <c r="U38" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V38">
-        <v>1582199852810</v>
+        <v>1582043591697</v>
       </c>
       <c r="X38" t="b">
         <v>0</v>
       </c>
       <c r="Y38" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="Z38" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="AA38" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="AB38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF38" t="b">
         <v>0</v>
@@ -5475,25 +5592,25 @@
         <v>0</v>
       </c>
       <c r="AH38" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI38" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="AM38">
-        <v>1080</v>
+        <v>600</v>
       </c>
       <c r="AN38" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO38">
-        <v>1920</v>
+        <v>800</v>
       </c>
       <c r="AP38">
-        <v>1582199825534</v>
+        <v>1582043579767</v>
       </c>
       <c r="AQ38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -5502,19 +5619,19 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AU38" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV38" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="AW38" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="AX38" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:50">
@@ -5528,58 +5645,58 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R39" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="S39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T39">
-        <v>13322</v>
+        <v>21585</v>
       </c>
       <c r="U39" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V39">
-        <v>1582199964607</v>
+        <v>1582043591453</v>
       </c>
       <c r="X39" t="b">
         <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="Z39" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AA39" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="AB39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF39" t="b">
         <v>0</v>
@@ -5588,25 +5705,25 @@
         <v>0</v>
       </c>
       <c r="AH39" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI39" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="AM39">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN39" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO39">
-        <v>1024</v>
+        <v>1920</v>
       </c>
       <c r="AP39">
-        <v>1582199951285</v>
+        <v>1582043569868</v>
       </c>
       <c r="AQ39" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -5615,16 +5732,19 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AU39" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>248</v>
       </c>
       <c r="AW39" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="AX39" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:50">
@@ -5638,100 +5758,112 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O40" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R40" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="S40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T40">
-        <v>13053</v>
+        <v>11284</v>
       </c>
       <c r="U40" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V40">
-        <v>1582199987292</v>
+        <v>1582043943039</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="Z40" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="AA40" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="AB40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40">
         <v>0</v>
       </c>
+      <c r="AH40" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>216</v>
+      </c>
       <c r="AJ40" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="AM40">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="AN40" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO40">
-        <v>1280</v>
+        <v>1920</v>
       </c>
       <c r="AP40">
-        <v>1582199974239</v>
+        <v>1582043931755</v>
       </c>
       <c r="AQ40" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR40">
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AU40" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>249</v>
       </c>
       <c r="AW40" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="AX40" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:50">
@@ -5745,91 +5877,85 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-      <c r="K41" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R41" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="S41" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T41">
-        <v>13063</v>
+        <v>13851</v>
       </c>
       <c r="U41" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V41">
-        <v>1582200645697</v>
+        <v>1582044185581</v>
       </c>
       <c r="X41" t="b">
         <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="Z41" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AA41" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="AB41" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD41" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41">
         <v>0</v>
       </c>
       <c r="AH41" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI41" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="AM41">
-        <v>1536</v>
+        <v>960</v>
       </c>
       <c r="AN41" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO41">
-        <v>2048</v>
+        <v>1440</v>
       </c>
       <c r="AP41">
-        <v>1582200632634</v>
+        <v>1582044171730</v>
       </c>
       <c r="AQ41" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -5838,16 +5964,16 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AU41" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AW41" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="AX41" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:50">
@@ -5858,61 +5984,64 @@
         <v>49</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="K42" t="s">
+        <v>74</v>
       </c>
       <c r="M42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R42" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="S42" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T42">
-        <v>247</v>
+        <v>11166</v>
       </c>
       <c r="U42" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V42">
-        <v>1582200643199</v>
+        <v>1582043427698</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Z42" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AA42" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="AB42" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD42" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF42" t="b">
         <v>0</v>
@@ -5921,43 +6050,49 @@
         <v>0</v>
       </c>
       <c r="AH42" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI42" t="s">
-        <v>176</v>
+        <v>214</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>218</v>
       </c>
       <c r="AM42">
-        <v>768</v>
+        <v>1200</v>
       </c>
       <c r="AN42" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO42">
-        <v>1024</v>
+        <v>1920</v>
       </c>
       <c r="AP42">
-        <v>1582200642952</v>
+        <v>1582043416532</v>
       </c>
       <c r="AQ42" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR42">
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AU42" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>238</v>
       </c>
       <c r="AW42" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="AX42" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:50">
@@ -5968,109 +6103,103 @@
         <v>49</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="K43" t="s">
+        <v>83</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N43" t="s">
+        <v>90</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" t="s">
+        <v>105</v>
+      </c>
+      <c r="R43" t="s">
+        <v>108</v>
+      </c>
+      <c r="S43" t="s">
+        <v>105</v>
+      </c>
+      <c r="T43">
+        <v>1927</v>
+      </c>
+      <c r="U43" t="s">
+        <v>117</v>
+      </c>
+      <c r="V43">
+        <v>1582043875488</v>
+      </c>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="s">
         <v>83</v>
       </c>
-      <c r="O43" t="s">
-        <v>87</v>
-      </c>
-      <c r="P43" t="s">
-        <v>98</v>
-      </c>
-      <c r="R43" t="s">
-        <v>101</v>
-      </c>
-      <c r="S43" t="s">
-        <v>98</v>
-      </c>
-      <c r="T43">
-        <v>26155</v>
-      </c>
-      <c r="U43" t="s">
-        <v>106</v>
-      </c>
-      <c r="V43">
-        <v>1582200725261</v>
-      </c>
-      <c r="X43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>175</v>
-      </c>
       <c r="AM43">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="AN43" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO43">
-        <v>1920</v>
+        <v>1280</v>
       </c>
       <c r="AP43">
-        <v>1582200699106</v>
+        <v>1582043873561</v>
       </c>
       <c r="AQ43" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR43">
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AW43" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="AX43" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:50">
@@ -6084,61 +6213,61 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K44" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O44" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P44" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R44" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="S44" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T44">
-        <v>138867</v>
+        <v>11334</v>
       </c>
       <c r="U44" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V44">
-        <v>1582200398485</v>
+        <v>1582043876192</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
       </c>
       <c r="Y44" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="Z44" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="AA44" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="AB44" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD44" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF44" t="b">
         <v>0</v>
@@ -6147,28 +6276,28 @@
         <v>0</v>
       </c>
       <c r="AH44" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI44" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="AJ44" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AM44">
         <v>768</v>
       </c>
       <c r="AN44" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO44">
-        <v>1366</v>
+        <v>1024</v>
       </c>
       <c r="AP44">
-        <v>1582200259618</v>
+        <v>1582043864858</v>
       </c>
       <c r="AQ44" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR44">
         <v>0</v>
@@ -6177,19 +6306,19 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="AU44" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV44" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="AW44" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="AX44" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:50">
@@ -6203,61 +6332,58 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-      <c r="K45" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R45" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S45" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T45">
-        <v>23491</v>
+        <v>14298</v>
       </c>
       <c r="U45" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V45">
-        <v>1582200454664</v>
+        <v>1582043905448</v>
       </c>
       <c r="X45" t="b">
         <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Z45" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="AA45" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="AB45" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD45" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF45" t="b">
         <v>0</v>
@@ -6266,28 +6392,25 @@
         <v>0</v>
       </c>
       <c r="AH45" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI45" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="AM45">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN45" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO45">
-        <v>1366</v>
+        <v>1920</v>
       </c>
       <c r="AP45">
-        <v>1582200431173</v>
+        <v>1582043891150</v>
       </c>
       <c r="AQ45" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR45">
         <v>0</v>
@@ -6296,19 +6419,19 @@
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AU45" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV45" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="AW45" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="AX45" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:50">
@@ -6322,61 +6445,58 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-      <c r="K46" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S46" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T46">
-        <v>13571</v>
+        <v>19266</v>
       </c>
       <c r="U46" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V46">
-        <v>1582200646805</v>
+        <v>1582044054138</v>
       </c>
       <c r="X46" t="b">
         <v>0</v>
       </c>
       <c r="Y46" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="Z46" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="AA46" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="AB46" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD46" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF46" t="b">
         <v>0</v>
@@ -6385,46 +6505,46 @@
         <v>0</v>
       </c>
       <c r="AH46" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI46" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="AM46">
-        <v>768</v>
+        <v>1080</v>
       </c>
       <c r="AN46" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO46">
-        <v>1364</v>
+        <v>1920</v>
       </c>
       <c r="AP46">
-        <v>1582200633234</v>
+        <v>1582044034872</v>
       </c>
       <c r="AQ46" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46">
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AU46" t="s">
-        <v>191</v>
+        <v>232</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>248</v>
       </c>
       <c r="AW46" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="AX46" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:50">
@@ -6438,88 +6558,82 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P47" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R47" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S47" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T47">
-        <v>60101</v>
+        <v>11322</v>
       </c>
       <c r="U47" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V47">
-        <v>1582200654117</v>
+        <v>1582044045923</v>
       </c>
       <c r="X47" t="b">
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="Z47" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AB47" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD47" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47">
         <v>0</v>
       </c>
       <c r="AH47" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="AM47">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="AN47" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO47">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="AP47">
-        <v>1582200594016</v>
+        <v>1582044034601</v>
       </c>
       <c r="AQ47" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR47">
         <v>1</v>
@@ -6528,19 +6642,19 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU47" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="AV47" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="AW47" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="AX47" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:50">
@@ -6554,61 +6668,61 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N48" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O48" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P48" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R48" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="S48" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T48">
-        <v>26702</v>
+        <v>23307</v>
       </c>
       <c r="U48" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V48">
-        <v>1582200325511</v>
+        <v>1582044027350</v>
       </c>
       <c r="X48" t="b">
         <v>0</v>
       </c>
       <c r="Y48" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="Z48" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="AA48" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="AB48" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD48" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF48" t="b">
         <v>0</v>
@@ -6617,28 +6731,28 @@
         <v>0</v>
       </c>
       <c r="AH48" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AI48" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AJ48" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="AM48">
         <v>768</v>
       </c>
       <c r="AN48" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO48">
-        <v>1366</v>
+        <v>1024</v>
       </c>
       <c r="AP48">
-        <v>1582200298809</v>
+        <v>1582044004043</v>
       </c>
       <c r="AQ48" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR48">
         <v>0</v>
@@ -6647,19 +6761,19 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AU48" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV48" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="AW48" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="AX48" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:50">
@@ -6673,61 +6787,58 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
-      </c>
-      <c r="K49" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O49" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="P49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R49" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="S49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T49">
-        <v>28239</v>
+        <v>11386</v>
       </c>
       <c r="U49" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V49">
-        <v>1582200287084</v>
+        <v>1582043712042</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="Z49" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="AA49" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="AB49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF49" t="b">
         <v>0</v>
@@ -6736,28 +6847,25 @@
         <v>0</v>
       </c>
       <c r="AH49" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI49" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="AM49">
-        <v>800</v>
+        <v>864</v>
       </c>
       <c r="AN49" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO49">
-        <v>1280</v>
+        <v>1152</v>
       </c>
       <c r="AP49">
-        <v>1582200258845</v>
+        <v>1582043700656</v>
       </c>
       <c r="AQ49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR49">
         <v>0</v>
@@ -6766,19 +6874,19 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AU49" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AV49" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="AW49" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="AX49" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:50">
@@ -6789,64 +6897,64 @@
         <v>49</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R50" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S50" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T50">
-        <v>22967</v>
+        <v>120</v>
       </c>
       <c r="U50" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V50">
-        <v>1582200309742</v>
+        <v>1582043742560</v>
       </c>
       <c r="X50" t="b">
         <v>0</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z50" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AA50" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="AB50" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD50" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF50" t="b">
         <v>0</v>
@@ -6855,49 +6963,46 @@
         <v>0</v>
       </c>
       <c r="AH50" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="AI50" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="AJ50" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="AM50">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AN50" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO50">
-        <v>1440</v>
+        <v>1920</v>
       </c>
       <c r="AP50">
-        <v>1582200286775</v>
+        <v>1582043742440</v>
       </c>
       <c r="AQ50" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR50">
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV50" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="AW50" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="AX50" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:50">
@@ -6911,94 +7016,103 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N51" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P51" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S51" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T51">
-        <v>30631</v>
+        <v>59543</v>
       </c>
       <c r="U51" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V51">
-        <v>1582200337777</v>
+        <v>1582046255086</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Z51" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>186</v>
       </c>
       <c r="AB51" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD51" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AF51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51">
         <v>0</v>
       </c>
+      <c r="AH51" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>215</v>
+      </c>
       <c r="AM51">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="AN51" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AO51">
-        <v>1680</v>
+        <v>1280</v>
       </c>
       <c r="AP51">
-        <v>1582200307146</v>
+        <v>1582046195543</v>
       </c>
       <c r="AQ51" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AR51">
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AU51" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV51" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AW51" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AX51" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
